--- a/techniqo/data_new_ticker/ENDURANCE.xlsx
+++ b/techniqo/data_new_ticker/ENDURANCE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G969"/>
+  <dimension ref="A1:G971"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34301,6 +34301,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B970" t="n">
+        <v>1152.9</v>
+      </c>
+      <c r="C970" t="n">
+        <v>1170</v>
+      </c>
+      <c r="D970" t="n">
+        <v>1115.15</v>
+      </c>
+      <c r="E970" t="n">
+        <v>1129.45</v>
+      </c>
+      <c r="F970" t="n">
+        <v>85817</v>
+      </c>
+      <c r="G970" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B971" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C971" t="n">
+        <v>1140</v>
+      </c>
+      <c r="D971" t="n">
+        <v>1111</v>
+      </c>
+      <c r="E971" t="n">
+        <v>1121.1</v>
+      </c>
+      <c r="F971" t="n">
+        <v>85061</v>
+      </c>
+      <c r="G971" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/ENDURANCE.xlsx
+++ b/techniqo/data_new_ticker/ENDURANCE.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G971"/>
+  <dimension ref="A1:G973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34351,6 +34351,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B972" t="n">
+        <v>1121</v>
+      </c>
+      <c r="C972" t="n">
+        <v>1145.95</v>
+      </c>
+      <c r="D972" t="n">
+        <v>1110</v>
+      </c>
+      <c r="E972" t="n">
+        <v>1138</v>
+      </c>
+      <c r="F972" t="n">
+        <v>36307</v>
+      </c>
+      <c r="G972" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B973" t="n">
+        <v>1130</v>
+      </c>
+      <c r="C973" t="n">
+        <v>1156</v>
+      </c>
+      <c r="D973" t="n">
+        <v>1125.15</v>
+      </c>
+      <c r="E973" t="n">
+        <v>1144.3</v>
+      </c>
+      <c r="F973" t="n">
+        <v>104959</v>
+      </c>
+      <c r="G973" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
